--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/startconfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/startconfig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work-unity\MET\Unity\Assets\Config\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work-unity\MET\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="809"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="809" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="@StartMachine" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -55,9 +55,6 @@
     <t>WatcherPort</t>
   </si>
   <si>
-    <t>192.168.1.111</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,10 +147,41 @@
     <t>ET1</t>
   </si>
   <si>
-    <t>ET2</t>
-  </si>
-  <si>
     <t>mongodb://127.0.0.1</t>
+  </si>
+  <si>
+    <t>游戏区</t>
+  </si>
+  <si>
+    <t>机器人区</t>
+  </si>
+  <si>
+    <t>路由区</t>
+  </si>
+  <si>
+    <t>RouterManager</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router01</t>
+  </si>
+  <si>
+    <t>Router02</t>
+  </si>
+  <si>
+    <t>Router03</t>
+  </si>
+  <si>
+    <t>Router04</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -610,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -630,7 +658,7 @@
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -645,7 +673,7 @@
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -678,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
         <v>10000</v>
@@ -696,10 +724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -720,10 +748,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -732,10 +760,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -759,18 +787,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>20001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20002</v>
+        <v>20101</v>
       </c>
     </row>
   </sheetData>
@@ -782,10 +799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B12" sqref="B12:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -809,19 +826,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -830,19 +847,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -878,13 +895,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1">
-        <v>30001</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -898,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="1">
-        <v>30002</v>
+        <v>30003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -918,13 +935,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1">
-        <v>30003</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -938,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -955,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -972,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -989,10 +1006,110 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>300</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>301</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1">
+        <v>30301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>302</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1">
+        <v>30302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>303</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1">
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>304</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1">
+        <v>30304</v>
       </c>
     </row>
   </sheetData>
@@ -1004,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1019,34 +1136,37 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="8" t="s">
         <v>1</v>
@@ -1058,26 +1178,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/startconfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/startconfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -181,6 +181,38 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +354,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,22 +374,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -656,7 +679,9 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -671,7 +696,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -686,7 +713,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -700,18 +729,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>10000</v>
       </c>
     </row>
@@ -724,10 +761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -743,8 +780,10 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -755,8 +794,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -767,7 +808,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -778,15 +821,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>20101</v>
       </c>
     </row>
@@ -799,10 +850,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -821,8 +872,10 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -842,8 +895,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -863,7 +918,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -883,50 +940,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>30002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1">
-        <v>30003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -938,15 +983,15 @@
         <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>30004</v>
+        <v>30003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -955,15 +1000,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -972,15 +1020,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -992,49 +1040,46 @@
         <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="1">
-        <v>30300</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1043,18 +1088,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1">
-        <v>30301</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1066,15 +1111,15 @@
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1">
-        <v>30302</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1086,15 +1131,15 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1">
-        <v>30303</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1106,9 +1151,29 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1">
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>304</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <v>30304</v>
       </c>
     </row>
@@ -1121,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1142,69 +1207,83 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/startconfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/startconfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -138,9 +138,6 @@
     <t>数据库名</t>
   </si>
   <si>
-    <t>DBConnection</t>
-  </si>
-  <si>
     <t>DBName</t>
   </si>
   <si>
@@ -213,6 +210,38 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedisAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedisDB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.64.254.231:6379</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +709,7 @@
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -697,7 +726,7 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -714,7 +743,7 @@
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -731,10 +760,10 @@
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -743,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
@@ -781,7 +810,7 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -795,7 +824,7 @@
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -809,7 +838,7 @@
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -823,10 +852,10 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -873,7 +902,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -896,7 +925,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -919,7 +948,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -942,10 +971,10 @@
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1088,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1">
         <v>30300</v>
@@ -1108,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G14" s="1">
         <v>30301</v>
@@ -1128,10 +1157,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="1">
         <v>30302</v>
@@ -1148,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1">
         <v>30303</v>
@@ -1168,10 +1197,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1">
         <v>30304</v>
@@ -1186,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1197,19 +1226,19 @@
     <col min="1" max="1" width="4.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -1220,24 +1249,36 @@
       <c r="D2" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>1</v>
@@ -1248,43 +1289,55 @@
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="E4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/startconfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/startconfig.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="809" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="809" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="@StartMachine" sheetId="6" r:id="rId1"/>
     <sheet name="@StartProcess" sheetId="8" r:id="rId2"/>
     <sheet name="@StartScene" sheetId="9" r:id="rId3"/>
-    <sheet name="@StartZone" sheetId="11" r:id="rId4"/>
+    <sheet name="@Zone" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>所属进程</t>
   </si>
   <si>
-    <t>所属区</t>
-  </si>
-  <si>
     <t>类型</t>
   </si>
   <si>
@@ -93,155 +90,187 @@
     <t>Process</t>
   </si>
   <si>
+    <t>SceneType</t>
+  </si>
+  <si>
+    <t>OuterPort</t>
+  </si>
+  <si>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Gate2</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map1</t>
+  </si>
+  <si>
+    <t>Map2</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot01</t>
+  </si>
+  <si>
+    <t>RouterManager</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router01</t>
+  </si>
+  <si>
+    <t>Router02</t>
+  </si>
+  <si>
+    <t>Router03</t>
+  </si>
+  <si>
+    <t>Router04</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET1</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.64.254.231</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoHost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoPort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDBName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedisHost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedisPort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedisDBIndex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedisPassword</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>Zone</t>
-  </si>
-  <si>
-    <t>SceneType</t>
-  </si>
-  <si>
-    <t>OuterPort</t>
-  </si>
-  <si>
-    <t>Realm</t>
-  </si>
-  <si>
-    <t>Gate</t>
-  </si>
-  <si>
-    <t>Gate1</t>
-  </si>
-  <si>
-    <t>Gate2</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robot01</t>
-  </si>
-  <si>
-    <t>数据库地址</t>
-  </si>
-  <si>
-    <t>数据库名</t>
-  </si>
-  <si>
-    <t>DBName</t>
-  </si>
-  <si>
-    <t>ET1</t>
-  </si>
-  <si>
-    <t>mongodb://127.0.0.1</t>
-  </si>
-  <si>
-    <t>游戏区</t>
-  </si>
-  <si>
-    <t>机器人区</t>
-  </si>
-  <si>
-    <t>路由区</t>
-  </si>
-  <si>
-    <t>RouterManager</t>
-  </si>
-  <si>
-    <t>Router</t>
-  </si>
-  <si>
-    <t>Router01</t>
-  </si>
-  <si>
-    <t>Router02</t>
-  </si>
-  <si>
-    <t>Router03</t>
-  </si>
-  <si>
-    <t>Router04</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBAddress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redis地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedisAddress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedisDB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redis数据库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100.64.254.231:6379</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +290,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -301,7 +331,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -383,7 +421,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,10 +444,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,6 +463,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -708,8 +757,8 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
+      <c r="A2" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -725,8 +774,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>52</v>
+      <c r="A3" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -742,8 +791,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>53</v>
+      <c r="A4" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -759,11 +808,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>54</v>
+      <c r="A5" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -772,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
@@ -793,7 +842,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -809,8 +858,8 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
+      <c r="A2" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -823,8 +872,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>52</v>
+      <c r="A3" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -837,8 +886,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>53</v>
+      <c r="A4" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -851,11 +900,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>54</v>
+      <c r="A5" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -881,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -890,9 +939,8 @@
     <col min="1" max="1" width="4.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -901,8 +949,8 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
+      <c r="A2" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -911,44 +959,44 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>52</v>
+      <c r="A3" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>53</v>
+      <c r="A4" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -957,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -970,11 +1018,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>54</v>
+      <c r="A5" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -989,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1">
         <v>30002</v>
@@ -1009,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1">
         <v>30003</v>
@@ -1029,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G8" s="1">
         <v>30004</v>
@@ -1049,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1066,10 +1114,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1083,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1100,10 +1148,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,10 +1165,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1">
         <v>30300</v>
@@ -1137,10 +1185,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1">
         <v>30301</v>
@@ -1157,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1">
         <v>30302</v>
@@ -1177,10 +1225,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1">
         <v>30303</v>
@@ -1197,10 +1245,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1">
         <v>30304</v>
@@ -1215,133 +1263,134 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="21.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5"/>
-      <c r="G1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="D3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27017</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
+        <v>6379</v>
+      </c>
+      <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
